--- a/src/data/【苏烟】探索笔记纯数据攻略.xlsx
+++ b/src/data/【苏烟】探索笔记纯数据攻略.xlsx
@@ -22,1009 +22,1009 @@
     <t/>
   </si>
   <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>差值</t>
+  </si>
+  <si>
+    <t>地图</t>
+  </si>
+  <si>
+    <t>天气</t>
+  </si>
+  <si>
+    <t>动作</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">利姆萨·罗敏萨上层甲板 </t>
+  </si>
+  <si>
+    <t>碧空或晴朗</t>
+  </si>
+  <si>
+    <t>行礼</t>
+  </si>
+  <si>
+    <t>利姆萨·罗敏萨下层甲板</t>
+  </si>
+  <si>
+    <t>小雪或暴雪</t>
+  </si>
+  <si>
+    <t>欢迎</t>
+  </si>
+  <si>
+    <t>中拉诺西亚</t>
+  </si>
+  <si>
+    <t>阴云或薄雾</t>
+  </si>
+  <si>
+    <t>道别</t>
+  </si>
+  <si>
+    <t>拉诺西亚低地</t>
+  </si>
+  <si>
+    <t>小雨或暴雨</t>
+  </si>
+  <si>
+    <t>挥手</t>
+  </si>
+  <si>
+    <t>东拉诺西亚</t>
+  </si>
+  <si>
+    <t>妖雾或薄雾</t>
+  </si>
+  <si>
+    <t>下跪</t>
+  </si>
+  <si>
+    <t>西拉诺西亚</t>
+  </si>
+  <si>
+    <t>碧空或热浪</t>
+  </si>
+  <si>
+    <t>致敬</t>
+  </si>
+  <si>
+    <t>拉诺西亚高地</t>
+  </si>
+  <si>
+    <t>打雷或阴云</t>
+  </si>
+  <si>
+    <t>轻笑</t>
+  </si>
+  <si>
+    <t>拉诺西亚外地</t>
+  </si>
+  <si>
+    <t>碧空</t>
+  </si>
+  <si>
+    <t>大笑</t>
+  </si>
+  <si>
+    <t>格里达尼亚新街</t>
+  </si>
+  <si>
+    <t>晴朗</t>
+  </si>
+  <si>
+    <t>高兴</t>
+  </si>
+  <si>
+    <t>格里达尼亚旧街</t>
+  </si>
+  <si>
+    <t>阴云</t>
+  </si>
+  <si>
+    <t>鼓励</t>
+  </si>
+  <si>
+    <t>黑衣森林中央林区</t>
+  </si>
+  <si>
+    <t>薄雾</t>
+  </si>
+  <si>
+    <t>安抚</t>
+  </si>
+  <si>
+    <t>黑衣森林东部林区</t>
+  </si>
+  <si>
+    <t>微风</t>
+  </si>
+  <si>
+    <t>害羞</t>
+  </si>
+  <si>
+    <t>黑衣森林南部林区</t>
+  </si>
+  <si>
+    <t>强风</t>
+  </si>
+  <si>
+    <t>安慰</t>
+  </si>
+  <si>
+    <t>黑衣森林北部林区</t>
+  </si>
+  <si>
+    <t>小雨</t>
+  </si>
+  <si>
+    <t>激励</t>
+  </si>
+  <si>
+    <t>乌尔达哈现世回廊</t>
+  </si>
+  <si>
+    <t>暴雨</t>
+  </si>
+  <si>
+    <t>祈福</t>
+  </si>
+  <si>
+    <t>乌尔达哈来生回廊</t>
+  </si>
+  <si>
+    <t>打雷</t>
+  </si>
+  <si>
+    <t>跳舞</t>
+  </si>
+  <si>
+    <t>乌尔达哈政府层</t>
+  </si>
+  <si>
+    <t>雷雨</t>
+  </si>
+  <si>
+    <t>点头</t>
+  </si>
+  <si>
+    <t>西萨纳兰</t>
+  </si>
+  <si>
+    <t>扬沙</t>
+  </si>
+  <si>
+    <t>肯定</t>
+  </si>
+  <si>
+    <t>中萨纳兰</t>
+  </si>
+  <si>
+    <t>热浪</t>
+  </si>
+  <si>
+    <t>拍手</t>
+  </si>
+  <si>
+    <t>东萨纳兰</t>
+  </si>
+  <si>
+    <t>小雪</t>
+  </si>
+  <si>
+    <t>称赞</t>
+  </si>
+  <si>
+    <t>南萨纳兰</t>
+  </si>
+  <si>
+    <t>暴雪</t>
+  </si>
+  <si>
+    <t>加油</t>
+  </si>
+  <si>
+    <t>北萨纳兰</t>
+  </si>
+  <si>
+    <t>妖雾</t>
+  </si>
+  <si>
+    <t>胜利欢呼</t>
+  </si>
+  <si>
+    <t>伊修加德基础层</t>
+  </si>
+  <si>
+    <t>灵风</t>
+  </si>
+  <si>
+    <t>拥抱</t>
+  </si>
+  <si>
+    <t>伊修加德砥柱层</t>
+  </si>
+  <si>
+    <t>灵电</t>
+  </si>
+  <si>
+    <t>深情拥抱</t>
+  </si>
+  <si>
+    <t>库尔札斯中央高地</t>
+  </si>
+  <si>
+    <t>月尘</t>
+  </si>
+  <si>
+    <t>抚摸</t>
+  </si>
+  <si>
+    <t>库尔札斯西部高地</t>
+  </si>
+  <si>
+    <t>磁暴</t>
+  </si>
+  <si>
+    <t>摇头</t>
+  </si>
+  <si>
+    <t>库尔札斯东部低地</t>
+  </si>
+  <si>
+    <t>否定</t>
+  </si>
+  <si>
+    <t>库尔札斯中央低地</t>
+  </si>
+  <si>
+    <t>哭泣</t>
+  </si>
+  <si>
+    <t>库尔札斯东部高地</t>
+  </si>
+  <si>
+    <t>愤怒</t>
+  </si>
+  <si>
+    <t>摩杜纳</t>
+  </si>
+  <si>
+    <t>后悔</t>
+  </si>
+  <si>
+    <t>丧灵钟</t>
+  </si>
+  <si>
+    <t>慌张</t>
+  </si>
+  <si>
+    <t>失望</t>
+  </si>
+  <si>
+    <t>愠怒</t>
+  </si>
+  <si>
+    <t>不满</t>
+  </si>
+  <si>
+    <t>莫名</t>
+  </si>
+  <si>
+    <t>震惊</t>
+  </si>
+  <si>
+    <t>耸肩</t>
+  </si>
+  <si>
+    <t>惊讶</t>
+  </si>
+  <si>
+    <t>质疑</t>
+  </si>
+  <si>
+    <t>招手</t>
+  </si>
+  <si>
+    <t>递交</t>
+  </si>
+  <si>
+    <t>思考</t>
+  </si>
+  <si>
+    <t>指向</t>
+  </si>
+  <si>
+    <t>戳指</t>
+  </si>
+  <si>
+    <t>伸展</t>
+  </si>
+  <si>
+    <t>张望</t>
+  </si>
+  <si>
+    <t>引用</t>
+  </si>
+  <si>
+    <t>展示</t>
+  </si>
+  <si>
+    <t>职业</t>
+  </si>
+  <si>
+    <t>理符</t>
+  </si>
+  <si>
+    <t>缴纳物品</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>刻木</t>
+  </si>
+  <si>
+    <t>制作委托：双蛇党用于训练的长枪</t>
+  </si>
+  <si>
+    <t>青铜长枪</t>
+  </si>
+  <si>
+    <t>制作委托：新手卫兵用的木盾</t>
+  </si>
+  <si>
+    <t>枫木方盾</t>
+  </si>
+  <si>
+    <t>制作委托：双蛇党用于训练的长弓</t>
+  </si>
+  <si>
+    <t>枫木长弓</t>
+  </si>
+  <si>
+    <t>筹集委托：新手卫生兵用的幻具</t>
+  </si>
+  <si>
+    <t>枫木牧杖</t>
+  </si>
+  <si>
+    <t>制作委托：面向雕金匠的制作工具</t>
+  </si>
+  <si>
+    <t>业余砂轮机</t>
+  </si>
+  <si>
+    <t>制作委托：牧场用的裁缝工具</t>
+  </si>
+  <si>
+    <t>业余纺车</t>
+  </si>
+  <si>
+    <t>制作委托：铁制长枪</t>
+  </si>
+  <si>
+    <t>黑铁长枪</t>
+  </si>
+  <si>
+    <t>制作委托：榆木制幻具</t>
+  </si>
+  <si>
+    <t>榆木牧杖</t>
+  </si>
+  <si>
+    <t>制作委托：打磨武具用的砂轮</t>
+  </si>
+  <si>
+    <t>新来者砂轮机</t>
+  </si>
+  <si>
+    <t>筹集委托：面向义勇兵的长枪</t>
+  </si>
+  <si>
+    <t>黑铁骑枪</t>
+  </si>
+  <si>
+    <t>批发委托：面向义勇兵的幻具</t>
+  </si>
+  <si>
+    <t>胡桃木长杖</t>
+  </si>
+  <si>
+    <t>制作委托：提供给鬼哭队的长枪</t>
+  </si>
+  <si>
+    <t>白钢长枪</t>
+  </si>
+  <si>
+    <t>筹集委托：送礼用的钓竿</t>
+  </si>
+  <si>
+    <t>胡桃钓竿</t>
+  </si>
+  <si>
+    <t>批发委托：捐赠给黑涡团的幻杖</t>
+  </si>
+  <si>
+    <t>胡桃木幻杖</t>
+  </si>
+  <si>
+    <t>制作委托：橡木制幻杖</t>
+  </si>
+  <si>
+    <t>铜铃橡木牧杖</t>
+  </si>
+  <si>
+    <t>制作委托：陆行鸟弓骑兵用的弓</t>
+  </si>
+  <si>
+    <t>秘银骑兵弓</t>
+  </si>
+  <si>
+    <t>筹集委托：面向骑兵团的砂轮</t>
+  </si>
+  <si>
+    <t>石蜥蜴砂轮机</t>
+  </si>
+  <si>
+    <t>制作委托：面向熟练骑兵的复合弓</t>
+  </si>
+  <si>
+    <t>橡木复合弓</t>
+  </si>
+  <si>
+    <t>批发委托：验证古代魔法用的咒杖</t>
+  </si>
+  <si>
+    <t>翡翠手杖</t>
+  </si>
+  <si>
+    <t>制作委托：面向佣兵的弓</t>
+  </si>
+  <si>
+    <t>紫杉长弓</t>
+  </si>
+  <si>
+    <t>地区</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>地点</t>
+  </si>
+  <si>
+    <t>开始时间（艾）</t>
+  </si>
+  <si>
+    <t>结束时间（艾）</t>
+  </si>
+  <si>
+    <t>风景点编号</t>
+  </si>
+  <si>
+    <t>萨纳兰</t>
+  </si>
+  <si>
+    <t>御道</t>
+  </si>
+  <si>
+    <t>风景点14</t>
+  </si>
+  <si>
+    <t>黄金广场</t>
+  </si>
+  <si>
+    <t>风景点15</t>
+  </si>
+  <si>
+    <t>贸易城邦乌尔达哈</t>
+  </si>
+  <si>
+    <t>风景点16</t>
+  </si>
+  <si>
+    <t>希拉狄哈遗迹</t>
+  </si>
+  <si>
+    <t>风景点17</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>古胎猩猩的遗骸</t>
+  </si>
+  <si>
+    <t>风景点18</t>
+  </si>
+  <si>
+    <t>消逝王都</t>
+  </si>
+  <si>
+    <t>风景点19</t>
+  </si>
+  <si>
+    <t>跨天桥</t>
+  </si>
+  <si>
+    <t>风景点20</t>
+  </si>
+  <si>
+    <t>帝国海上基地</t>
+  </si>
+  <si>
+    <t>风景点51</t>
+  </si>
+  <si>
+    <t>黄昏港的罗罗力特像</t>
+  </si>
+  <si>
+    <t>风景点52</t>
+  </si>
+  <si>
+    <t>黑尘驿站</t>
+  </si>
+  <si>
+    <t>风景点53</t>
+  </si>
+  <si>
+    <t>纳尔之门</t>
+  </si>
+  <si>
+    <t>风景点54</t>
+  </si>
+  <si>
+    <t>火墙</t>
+  </si>
+  <si>
+    <t>风景点55</t>
+  </si>
+  <si>
+    <t>黄金集市</t>
+  </si>
+  <si>
+    <t>风景点56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">札尔神祠 </t>
+  </si>
+  <si>
+    <t>风景点57</t>
+  </si>
+  <si>
+    <t>纳尔神祠</t>
+  </si>
+  <si>
+    <t>风景点58</t>
+  </si>
+  <si>
+    <t>不悔战阵</t>
+  </si>
+  <si>
+    <t>风景点59</t>
+  </si>
+  <si>
+    <t>工艺神击</t>
+  </si>
+  <si>
+    <t>风景点60</t>
+  </si>
+  <si>
+    <t>喀恩埋没圣堂</t>
+  </si>
+  <si>
+    <t>风景点61</t>
+  </si>
+  <si>
+    <t>牛魔里程</t>
+  </si>
+  <si>
+    <t>风景点62</t>
+  </si>
+  <si>
+    <t>东侧监视塔</t>
+  </si>
+  <si>
+    <t>风景点63</t>
+  </si>
+  <si>
+    <t>青磷水输送管</t>
+  </si>
+  <si>
+    <t>风景点64</t>
+  </si>
+  <si>
+    <t>蓝雾</t>
+  </si>
+  <si>
+    <t>风景点65</t>
+  </si>
+  <si>
+    <t>劳班缓冲地</t>
+  </si>
+  <si>
+    <t>风景点66</t>
+  </si>
+  <si>
+    <t>艾玛吉娜秘银废矿</t>
+  </si>
+  <si>
+    <t>风景点67</t>
+  </si>
+  <si>
+    <t>黑衣森林</t>
+  </si>
+  <si>
+    <t>制革匠行会</t>
+  </si>
+  <si>
+    <t>风景点09</t>
+  </si>
+  <si>
+    <t>碧企鹅瀑布</t>
+  </si>
+  <si>
+    <t>风景点10</t>
+  </si>
+  <si>
+    <t>弯枝牧场</t>
+  </si>
+  <si>
+    <t>风景点11</t>
+  </si>
+  <si>
+    <t>十二神大圣堂</t>
+  </si>
+  <si>
+    <t>风景点12</t>
+  </si>
+  <si>
+    <t>妖精暂留地</t>
+  </si>
+  <si>
+    <t>风景点13</t>
+  </si>
+  <si>
+    <t>魔女咖啡馆和大水车</t>
+  </si>
+  <si>
+    <t>风景点37</t>
+  </si>
+  <si>
+    <t>枪术师行会</t>
+  </si>
+  <si>
+    <t>风景点38</t>
+  </si>
+  <si>
+    <t>烤饼练兵所</t>
+  </si>
+  <si>
+    <t>风景点39</t>
+  </si>
+  <si>
+    <t>静语庄园</t>
+  </si>
+  <si>
+    <t>风景点40</t>
+  </si>
+  <si>
+    <t>长老树</t>
+  </si>
+  <si>
+    <t>风景点41</t>
+  </si>
+  <si>
+    <t>虹桥瀑布</t>
+  </si>
+  <si>
+    <t>风景点42</t>
+  </si>
+  <si>
+    <t>摇篮树</t>
+  </si>
+  <si>
+    <t>风景点43</t>
+  </si>
+  <si>
+    <t>录制时有点BUG，重新打开关闭一些地图就金了</t>
+  </si>
+  <si>
+    <t>巴斯卡隆酒家</t>
+  </si>
+  <si>
+    <t>风景点44</t>
+  </si>
+  <si>
+    <t>森南飞艇坪</t>
+  </si>
+  <si>
+    <t>风景点45</t>
+  </si>
+  <si>
+    <t>兀尔德恩惠地</t>
+  </si>
+  <si>
+    <t>风景点46</t>
+  </si>
+  <si>
+    <t>6.2 3:35, 5:55; 6.4 2:15, 3:15</t>
+  </si>
+  <si>
+    <t>石场水车</t>
+  </si>
+  <si>
+    <t>风景点47</t>
+  </si>
+  <si>
+    <t>鸟人军采伐所</t>
+  </si>
+  <si>
+    <t>风景点48</t>
+  </si>
+  <si>
+    <t>陨石背阴地</t>
+  </si>
+  <si>
+    <t>风景点49</t>
+  </si>
+  <si>
+    <t>桤木泉</t>
+  </si>
+  <si>
+    <t>风景点50</t>
+  </si>
+  <si>
+    <t>跳了半天掉下去了没素材 6.2 3:23, 5:43, 22:03</t>
+  </si>
+  <si>
+    <t>拉诺西亚</t>
+  </si>
+  <si>
+    <t>梭鱼埠头</t>
+  </si>
+  <si>
+    <t>风景点01</t>
+  </si>
+  <si>
+    <t>阿斯塔利西亚号海盗船</t>
+  </si>
+  <si>
+    <t>风景点02</t>
+  </si>
+  <si>
+    <t>海词石窟的纪念碑</t>
+  </si>
+  <si>
+    <t>风景点03</t>
+  </si>
+  <si>
+    <t>天梯</t>
+  </si>
+  <si>
+    <t>风景点04</t>
+  </si>
+  <si>
+    <t>拉撒格兰东区</t>
+  </si>
+  <si>
+    <t>风景点05</t>
+  </si>
+  <si>
+    <t>砂盐滩</t>
+  </si>
+  <si>
+    <t>风景点06</t>
+  </si>
+  <si>
+    <t>赤血雄鸡农场的田地</t>
+  </si>
+  <si>
+    <t>风景点07</t>
+  </si>
+  <si>
+    <t>酿酒师灯塔</t>
+  </si>
+  <si>
+    <t>风景点08</t>
+  </si>
+  <si>
+    <t>轻声谷</t>
+  </si>
+  <si>
+    <t>风景点21</t>
+  </si>
+  <si>
+    <t>盛夏农庄</t>
+  </si>
+  <si>
+    <t>风景点22</t>
+  </si>
+  <si>
+    <t>灰舰风车群</t>
+  </si>
+  <si>
+    <t>风景点23</t>
+  </si>
+  <si>
+    <t>隐秘瀑布</t>
+  </si>
+  <si>
+    <t>风景点24</t>
+  </si>
+  <si>
+    <t>白鸥塔</t>
+  </si>
+  <si>
+    <t>风景点25</t>
+  </si>
+  <si>
+    <t>小麦酒港的利姆莱茵像</t>
+  </si>
+  <si>
+    <t>风景点26</t>
+  </si>
+  <si>
+    <t>船舶墓场</t>
+  </si>
+  <si>
+    <t>风景点27</t>
+  </si>
+  <si>
+    <t>骷髅谷营地</t>
+  </si>
+  <si>
+    <t>风景点28</t>
+  </si>
+  <si>
+    <t>南北防波堤</t>
+  </si>
+  <si>
+    <t>风景点29</t>
+  </si>
+  <si>
+    <t>石绿湖营地</t>
+  </si>
+  <si>
+    <t>风景点30</t>
+  </si>
+  <si>
+    <t>撒拉奥斯的遗骸</t>
+  </si>
+  <si>
+    <t>风景点31</t>
+  </si>
+  <si>
+    <t>吉吉卢恩交易站</t>
+  </si>
+  <si>
+    <t>风景点32</t>
+  </si>
+  <si>
+    <t>妮姆浮游遗迹</t>
+  </si>
+  <si>
+    <t>风景点33</t>
+  </si>
+  <si>
+    <t>瞭望阵营地</t>
+  </si>
+  <si>
+    <t>风景点34</t>
+  </si>
+  <si>
+    <t>武伽玛罗武装矿山</t>
+  </si>
+  <si>
+    <t>风景点35</t>
+  </si>
+  <si>
+    <t>隐者庵</t>
+  </si>
+  <si>
+    <t>风景点36</t>
+  </si>
+  <si>
+    <t>伊修加德周边</t>
+  </si>
+  <si>
+    <t>剑锋</t>
+  </si>
+  <si>
+    <t>风景点68</t>
+  </si>
+  <si>
+    <t>阿德内尔占星台</t>
+  </si>
+  <si>
+    <t>风景点69</t>
+  </si>
+  <si>
+    <t>龙族遗骸</t>
+  </si>
+  <si>
+    <t>风景点70</t>
+  </si>
+  <si>
+    <t>皇都伊修加德</t>
+  </si>
+  <si>
+    <t>风景点71</t>
+  </si>
+  <si>
+    <t>巨石丘</t>
+  </si>
+  <si>
+    <t>风景点72</t>
+  </si>
+  <si>
+    <t>战争神秘石</t>
+  </si>
+  <si>
+    <t>风景点73</t>
+  </si>
+  <si>
+    <t>披雪大冰壁</t>
+  </si>
+  <si>
+    <t>风景点74</t>
+  </si>
+  <si>
+    <t>巨龙首营地</t>
+  </si>
+  <si>
+    <t>风景点75</t>
+  </si>
+  <si>
+    <t>钢卫塔</t>
+  </si>
+  <si>
+    <t>风景点76</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>帝国中央堡</t>
+  </si>
+  <si>
+    <t>风景点77</t>
+  </si>
+  <si>
+    <t>水晶塔</t>
+  </si>
+  <si>
+    <t>风景点78</t>
+  </si>
+  <si>
+    <t>早霜顶</t>
+  </si>
+  <si>
+    <t>风景点79</t>
+  </si>
+  <si>
+    <t>密约之塔</t>
+  </si>
+  <si>
+    <t>风景点80</t>
+  </si>
+  <si>
     <t>筛选项名称</t>
   </si>
   <si>
     <t>计数</t>
-  </si>
-  <si>
-    <t>安慰</t>
-  </si>
-  <si>
-    <t>道别</t>
-  </si>
-  <si>
-    <t>点头</t>
-  </si>
-  <si>
-    <t>高兴</t>
-  </si>
-  <si>
-    <t>鼓励</t>
-  </si>
-  <si>
-    <t>欢迎</t>
-  </si>
-  <si>
-    <t>慌张</t>
-  </si>
-  <si>
-    <t>挥手</t>
-  </si>
-  <si>
-    <t>激励</t>
-  </si>
-  <si>
-    <t>惊讶</t>
-  </si>
-  <si>
-    <t>肯定</t>
-  </si>
-  <si>
-    <t>拍手</t>
-  </si>
-  <si>
-    <t>祈福</t>
-  </si>
-  <si>
-    <t>伸展</t>
-  </si>
-  <si>
-    <t>思考</t>
-  </si>
-  <si>
-    <t>耸肩</t>
-  </si>
-  <si>
-    <t>行礼</t>
-  </si>
-  <si>
-    <t>张望</t>
-  </si>
-  <si>
-    <t>招手</t>
-  </si>
-  <si>
-    <t>震惊</t>
-  </si>
-  <si>
-    <t>指向</t>
-  </si>
-  <si>
-    <t>质疑</t>
-  </si>
-  <si>
-    <t>致敬</t>
-  </si>
-  <si>
-    <t>职业</t>
-  </si>
-  <si>
-    <t>理符</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>缴纳物品</t>
-  </si>
-  <si>
-    <t>经验</t>
-  </si>
-  <si>
-    <t>金币</t>
-  </si>
-  <si>
-    <t>刻木</t>
-  </si>
-  <si>
-    <t>制作委托：双蛇党用于训练的长枪</t>
-  </si>
-  <si>
-    <t>青铜长枪</t>
-  </si>
-  <si>
-    <t>制作委托：新手卫兵用的木盾</t>
-  </si>
-  <si>
-    <t>枫木方盾</t>
-  </si>
-  <si>
-    <t>制作委托：双蛇党用于训练的长弓</t>
-  </si>
-  <si>
-    <t>枫木长弓</t>
-  </si>
-  <si>
-    <t>筹集委托：新手卫生兵用的幻具</t>
-  </si>
-  <si>
-    <t>枫木牧杖</t>
-  </si>
-  <si>
-    <t>制作委托：面向雕金匠的制作工具</t>
-  </si>
-  <si>
-    <t>业余砂轮机</t>
-  </si>
-  <si>
-    <t>制作委托：牧场用的裁缝工具</t>
-  </si>
-  <si>
-    <t>业余纺车</t>
-  </si>
-  <si>
-    <t>制作委托：铁制长枪</t>
-  </si>
-  <si>
-    <t>黑铁长枪</t>
-  </si>
-  <si>
-    <t>制作委托：榆木制幻具</t>
-  </si>
-  <si>
-    <t>榆木牧杖</t>
-  </si>
-  <si>
-    <t>制作委托：打磨武具用的砂轮</t>
-  </si>
-  <si>
-    <t>新来者砂轮机</t>
-  </si>
-  <si>
-    <t>筹集委托：面向义勇兵的长枪</t>
-  </si>
-  <si>
-    <t>黑铁骑枪</t>
-  </si>
-  <si>
-    <t>批发委托：面向义勇兵的幻具</t>
-  </si>
-  <si>
-    <t>胡桃木长杖</t>
-  </si>
-  <si>
-    <t>制作委托：提供给鬼哭队的长枪</t>
-  </si>
-  <si>
-    <t>白钢长枪</t>
-  </si>
-  <si>
-    <t>筹集委托：送礼用的钓竿</t>
-  </si>
-  <si>
-    <t>胡桃钓竿</t>
-  </si>
-  <si>
-    <t>批发委托：捐赠给黑涡团的幻杖</t>
-  </si>
-  <si>
-    <t>胡桃木幻杖</t>
-  </si>
-  <si>
-    <t>制作委托：橡木制幻杖</t>
-  </si>
-  <si>
-    <t>铜铃橡木牧杖</t>
-  </si>
-  <si>
-    <t>制作委托：陆行鸟弓骑兵用的弓</t>
-  </si>
-  <si>
-    <t>秘银骑兵弓</t>
-  </si>
-  <si>
-    <t>筹集委托：面向骑兵团的砂轮</t>
-  </si>
-  <si>
-    <t>石蜥蜴砂轮机</t>
-  </si>
-  <si>
-    <t>制作委托：面向熟练骑兵的复合弓</t>
-  </si>
-  <si>
-    <t>橡木复合弓</t>
-  </si>
-  <si>
-    <t>批发委托：验证古代魔法用的咒杖</t>
-  </si>
-  <si>
-    <t>翡翠手杖</t>
-  </si>
-  <si>
-    <t>制作委托：面向佣兵的弓</t>
-  </si>
-  <si>
-    <t>紫杉长弓</t>
-  </si>
-  <si>
-    <t>地图</t>
-  </si>
-  <si>
-    <t>天气</t>
-  </si>
-  <si>
-    <t>动作</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">利姆萨·罗敏萨上层甲板 </t>
-  </si>
-  <si>
-    <t>碧空或晴朗</t>
-  </si>
-  <si>
-    <t>利姆萨·罗敏萨下层甲板</t>
-  </si>
-  <si>
-    <t>小雪或暴雪</t>
-  </si>
-  <si>
-    <t>中拉诺西亚</t>
-  </si>
-  <si>
-    <t>阴云或薄雾</t>
-  </si>
-  <si>
-    <t>拉诺西亚低地</t>
-  </si>
-  <si>
-    <t>小雨或暴雨</t>
-  </si>
-  <si>
-    <t>东拉诺西亚</t>
-  </si>
-  <si>
-    <t>妖雾或薄雾</t>
-  </si>
-  <si>
-    <t>下跪</t>
-  </si>
-  <si>
-    <t>西拉诺西亚</t>
-  </si>
-  <si>
-    <t>碧空或热浪</t>
-  </si>
-  <si>
-    <t>拉诺西亚高地</t>
-  </si>
-  <si>
-    <t>打雷或阴云</t>
-  </si>
-  <si>
-    <t>轻笑</t>
-  </si>
-  <si>
-    <t>拉诺西亚外地</t>
-  </si>
-  <si>
-    <t>碧空</t>
-  </si>
-  <si>
-    <t>大笑</t>
-  </si>
-  <si>
-    <t>格里达尼亚新街</t>
-  </si>
-  <si>
-    <t>晴朗</t>
-  </si>
-  <si>
-    <t>格里达尼亚旧街</t>
-  </si>
-  <si>
-    <t>阴云</t>
-  </si>
-  <si>
-    <t>黑衣森林中央林区</t>
-  </si>
-  <si>
-    <t>薄雾</t>
-  </si>
-  <si>
-    <t>安抚</t>
-  </si>
-  <si>
-    <t>黑衣森林东部林区</t>
-  </si>
-  <si>
-    <t>微风</t>
-  </si>
-  <si>
-    <t>害羞</t>
-  </si>
-  <si>
-    <t>黑衣森林南部林区</t>
-  </si>
-  <si>
-    <t>强风</t>
-  </si>
-  <si>
-    <t>黑衣森林北部林区</t>
-  </si>
-  <si>
-    <t>小雨</t>
-  </si>
-  <si>
-    <t>乌尔达哈现世回廊</t>
-  </si>
-  <si>
-    <t>暴雨</t>
-  </si>
-  <si>
-    <t>乌尔达哈来生回廊</t>
-  </si>
-  <si>
-    <t>打雷</t>
-  </si>
-  <si>
-    <t>跳舞</t>
-  </si>
-  <si>
-    <t>乌尔达哈政府层</t>
-  </si>
-  <si>
-    <t>雷雨</t>
-  </si>
-  <si>
-    <t>西萨纳兰</t>
-  </si>
-  <si>
-    <t>扬沙</t>
-  </si>
-  <si>
-    <t>中萨纳兰</t>
-  </si>
-  <si>
-    <t>热浪</t>
-  </si>
-  <si>
-    <t>东萨纳兰</t>
-  </si>
-  <si>
-    <t>小雪</t>
-  </si>
-  <si>
-    <t>称赞</t>
-  </si>
-  <si>
-    <t>南萨纳兰</t>
-  </si>
-  <si>
-    <t>暴雪</t>
-  </si>
-  <si>
-    <t>加油</t>
-  </si>
-  <si>
-    <t>北萨纳兰</t>
-  </si>
-  <si>
-    <t>妖雾</t>
-  </si>
-  <si>
-    <t>胜利欢呼</t>
-  </si>
-  <si>
-    <t>伊修加德基础层</t>
-  </si>
-  <si>
-    <t>灵风</t>
-  </si>
-  <si>
-    <t>拥抱</t>
-  </si>
-  <si>
-    <t>伊修加德砥柱层</t>
-  </si>
-  <si>
-    <t>灵电</t>
-  </si>
-  <si>
-    <t>深情拥抱</t>
-  </si>
-  <si>
-    <t>库尔札斯中央高地</t>
-  </si>
-  <si>
-    <t>月尘</t>
-  </si>
-  <si>
-    <t>抚摸</t>
-  </si>
-  <si>
-    <t>库尔札斯西部高地</t>
-  </si>
-  <si>
-    <t>磁暴</t>
-  </si>
-  <si>
-    <t>摇头</t>
-  </si>
-  <si>
-    <t>库尔札斯东部低地</t>
-  </si>
-  <si>
-    <t>否定</t>
-  </si>
-  <si>
-    <t>库尔札斯中央低地</t>
-  </si>
-  <si>
-    <t>哭泣</t>
-  </si>
-  <si>
-    <t>库尔札斯东部高地</t>
-  </si>
-  <si>
-    <t>愤怒</t>
-  </si>
-  <si>
-    <t>摩杜纳</t>
-  </si>
-  <si>
-    <t>后悔</t>
-  </si>
-  <si>
-    <t>丧灵钟</t>
-  </si>
-  <si>
-    <t>失望</t>
-  </si>
-  <si>
-    <t>愠怒</t>
-  </si>
-  <si>
-    <t>不满</t>
-  </si>
-  <si>
-    <t>莫名</t>
-  </si>
-  <si>
-    <t>递交</t>
-  </si>
-  <si>
-    <t>戳指</t>
-  </si>
-  <si>
-    <t>引用</t>
-  </si>
-  <si>
-    <t>展示</t>
-  </si>
-  <si>
-    <t>差值</t>
-  </si>
-  <si>
-    <t>地区</t>
-  </si>
-  <si>
-    <t>编号</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>地点</t>
-  </si>
-  <si>
-    <t>开始时间（艾）</t>
-  </si>
-  <si>
-    <t>结束时间（艾）</t>
-  </si>
-  <si>
-    <t>风景点编号</t>
-  </si>
-  <si>
-    <t>萨纳兰</t>
-  </si>
-  <si>
-    <t>御道</t>
-  </si>
-  <si>
-    <t>风景点14</t>
-  </si>
-  <si>
-    <t>黄金广场</t>
-  </si>
-  <si>
-    <t>风景点15</t>
-  </si>
-  <si>
-    <t>贸易城邦乌尔达哈</t>
-  </si>
-  <si>
-    <t>风景点16</t>
-  </si>
-  <si>
-    <t>希拉狄哈遗迹</t>
-  </si>
-  <si>
-    <t>风景点17</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>古胎猩猩的遗骸</t>
-  </si>
-  <si>
-    <t>风景点18</t>
-  </si>
-  <si>
-    <t>消逝王都</t>
-  </si>
-  <si>
-    <t>风景点19</t>
-  </si>
-  <si>
-    <t>跨天桥</t>
-  </si>
-  <si>
-    <t>风景点20</t>
-  </si>
-  <si>
-    <t>帝国海上基地</t>
-  </si>
-  <si>
-    <t>风景点51</t>
-  </si>
-  <si>
-    <t>黄昏港的罗罗力特像</t>
-  </si>
-  <si>
-    <t>风景点52</t>
-  </si>
-  <si>
-    <t>黑尘驿站</t>
-  </si>
-  <si>
-    <t>风景点53</t>
-  </si>
-  <si>
-    <t>纳尔之门</t>
-  </si>
-  <si>
-    <t>风景点54</t>
-  </si>
-  <si>
-    <t>火墙</t>
-  </si>
-  <si>
-    <t>风景点55</t>
-  </si>
-  <si>
-    <t>黄金集市</t>
-  </si>
-  <si>
-    <t>风景点56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">札尔神祠 </t>
-  </si>
-  <si>
-    <t>风景点57</t>
-  </si>
-  <si>
-    <t>纳尔神祠</t>
-  </si>
-  <si>
-    <t>风景点58</t>
-  </si>
-  <si>
-    <t>不悔战阵</t>
-  </si>
-  <si>
-    <t>风景点59</t>
-  </si>
-  <si>
-    <t>工艺神击</t>
-  </si>
-  <si>
-    <t>风景点60</t>
-  </si>
-  <si>
-    <t>喀恩埋没圣堂</t>
-  </si>
-  <si>
-    <t>风景点61</t>
-  </si>
-  <si>
-    <t>牛魔里程</t>
-  </si>
-  <si>
-    <t>风景点62</t>
-  </si>
-  <si>
-    <t>东侧监视塔</t>
-  </si>
-  <si>
-    <t>风景点63</t>
-  </si>
-  <si>
-    <t>青磷水输送管</t>
-  </si>
-  <si>
-    <t>风景点64</t>
-  </si>
-  <si>
-    <t>蓝雾</t>
-  </si>
-  <si>
-    <t>风景点65</t>
-  </si>
-  <si>
-    <t>劳班缓冲地</t>
-  </si>
-  <si>
-    <t>风景点66</t>
-  </si>
-  <si>
-    <t>艾玛吉娜秘银废矿</t>
-  </si>
-  <si>
-    <t>风景点67</t>
-  </si>
-  <si>
-    <t>黑衣森林</t>
-  </si>
-  <si>
-    <t>制革匠行会</t>
-  </si>
-  <si>
-    <t>风景点09</t>
-  </si>
-  <si>
-    <t>碧企鹅瀑布</t>
-  </si>
-  <si>
-    <t>风景点10</t>
-  </si>
-  <si>
-    <t>弯枝牧场</t>
-  </si>
-  <si>
-    <t>风景点11</t>
-  </si>
-  <si>
-    <t>十二神大圣堂</t>
-  </si>
-  <si>
-    <t>风景点12</t>
-  </si>
-  <si>
-    <t>妖精暂留地</t>
-  </si>
-  <si>
-    <t>风景点13</t>
-  </si>
-  <si>
-    <t>魔女咖啡馆和大水车</t>
-  </si>
-  <si>
-    <t>风景点37</t>
-  </si>
-  <si>
-    <t>枪术师行会</t>
-  </si>
-  <si>
-    <t>风景点38</t>
-  </si>
-  <si>
-    <t>烤饼练兵所</t>
-  </si>
-  <si>
-    <t>风景点39</t>
-  </si>
-  <si>
-    <t>静语庄园</t>
-  </si>
-  <si>
-    <t>风景点40</t>
-  </si>
-  <si>
-    <t>长老树</t>
-  </si>
-  <si>
-    <t>风景点41</t>
-  </si>
-  <si>
-    <t>虹桥瀑布</t>
-  </si>
-  <si>
-    <t>风景点42</t>
-  </si>
-  <si>
-    <t>摇篮树</t>
-  </si>
-  <si>
-    <t>风景点43</t>
-  </si>
-  <si>
-    <t>录制时有点BUG，重新打开关闭一些地图就金了</t>
-  </si>
-  <si>
-    <t>巴斯卡隆酒家</t>
-  </si>
-  <si>
-    <t>风景点44</t>
-  </si>
-  <si>
-    <t>森南飞艇坪</t>
-  </si>
-  <si>
-    <t>风景点45</t>
-  </si>
-  <si>
-    <t>兀尔德恩惠地</t>
-  </si>
-  <si>
-    <t>风景点46</t>
-  </si>
-  <si>
-    <t>6.2 3:35, 5:55; 6.4 2:15, 3:15</t>
-  </si>
-  <si>
-    <t>石场水车</t>
-  </si>
-  <si>
-    <t>风景点47</t>
-  </si>
-  <si>
-    <t>鸟人军采伐所</t>
-  </si>
-  <si>
-    <t>风景点48</t>
-  </si>
-  <si>
-    <t>陨石背阴地</t>
-  </si>
-  <si>
-    <t>风景点49</t>
-  </si>
-  <si>
-    <t>桤木泉</t>
-  </si>
-  <si>
-    <t>风景点50</t>
-  </si>
-  <si>
-    <t>跳了半天掉下去了没素材 6.2 3:23, 5:43, 22:03</t>
-  </si>
-  <si>
-    <t>拉诺西亚</t>
-  </si>
-  <si>
-    <t>梭鱼埠头</t>
-  </si>
-  <si>
-    <t>风景点01</t>
-  </si>
-  <si>
-    <t>阿斯塔利西亚号海盗船</t>
-  </si>
-  <si>
-    <t>风景点02</t>
-  </si>
-  <si>
-    <t>海词石窟的纪念碑</t>
-  </si>
-  <si>
-    <t>风景点03</t>
-  </si>
-  <si>
-    <t>天梯</t>
-  </si>
-  <si>
-    <t>风景点04</t>
-  </si>
-  <si>
-    <t>拉撒格兰东区</t>
-  </si>
-  <si>
-    <t>风景点05</t>
-  </si>
-  <si>
-    <t>砂盐滩</t>
-  </si>
-  <si>
-    <t>风景点06</t>
-  </si>
-  <si>
-    <t>赤血雄鸡农场的田地</t>
-  </si>
-  <si>
-    <t>风景点07</t>
-  </si>
-  <si>
-    <t>酿酒师灯塔</t>
-  </si>
-  <si>
-    <t>风景点08</t>
-  </si>
-  <si>
-    <t>轻声谷</t>
-  </si>
-  <si>
-    <t>风景点21</t>
-  </si>
-  <si>
-    <t>盛夏农庄</t>
-  </si>
-  <si>
-    <t>风景点22</t>
-  </si>
-  <si>
-    <t>灰舰风车群</t>
-  </si>
-  <si>
-    <t>风景点23</t>
-  </si>
-  <si>
-    <t>隐秘瀑布</t>
-  </si>
-  <si>
-    <t>风景点24</t>
-  </si>
-  <si>
-    <t>白鸥塔</t>
-  </si>
-  <si>
-    <t>风景点25</t>
-  </si>
-  <si>
-    <t>小麦酒港的利姆莱茵像</t>
-  </si>
-  <si>
-    <t>风景点26</t>
-  </si>
-  <si>
-    <t>船舶墓场</t>
-  </si>
-  <si>
-    <t>风景点27</t>
-  </si>
-  <si>
-    <t>骷髅谷营地</t>
-  </si>
-  <si>
-    <t>风景点28</t>
-  </si>
-  <si>
-    <t>南北防波堤</t>
-  </si>
-  <si>
-    <t>风景点29</t>
-  </si>
-  <si>
-    <t>石绿湖营地</t>
-  </si>
-  <si>
-    <t>风景点30</t>
-  </si>
-  <si>
-    <t>撒拉奥斯的遗骸</t>
-  </si>
-  <si>
-    <t>风景点31</t>
-  </si>
-  <si>
-    <t>吉吉卢恩交易站</t>
-  </si>
-  <si>
-    <t>风景点32</t>
-  </si>
-  <si>
-    <t>妮姆浮游遗迹</t>
-  </si>
-  <si>
-    <t>风景点33</t>
-  </si>
-  <si>
-    <t>瞭望阵营地</t>
-  </si>
-  <si>
-    <t>风景点34</t>
-  </si>
-  <si>
-    <t>武伽玛罗武装矿山</t>
-  </si>
-  <si>
-    <t>风景点35</t>
-  </si>
-  <si>
-    <t>隐者庵</t>
-  </si>
-  <si>
-    <t>风景点36</t>
-  </si>
-  <si>
-    <t>伊修加德周边</t>
-  </si>
-  <si>
-    <t>剑锋</t>
-  </si>
-  <si>
-    <t>风景点68</t>
-  </si>
-  <si>
-    <t>阿德内尔占星台</t>
-  </si>
-  <si>
-    <t>风景点69</t>
-  </si>
-  <si>
-    <t>龙族遗骸</t>
-  </si>
-  <si>
-    <t>风景点70</t>
-  </si>
-  <si>
-    <t>皇都伊修加德</t>
-  </si>
-  <si>
-    <t>风景点71</t>
-  </si>
-  <si>
-    <t>巨石丘</t>
-  </si>
-  <si>
-    <t>风景点72</t>
-  </si>
-  <si>
-    <t>战争神秘石</t>
-  </si>
-  <si>
-    <t>风景点73</t>
-  </si>
-  <si>
-    <t>披雪大冰壁</t>
-  </si>
-  <si>
-    <t>风景点74</t>
-  </si>
-  <si>
-    <t>巨龙首营地</t>
-  </si>
-  <si>
-    <t>风景点75</t>
-  </si>
-  <si>
-    <t>钢卫塔</t>
-  </si>
-  <si>
-    <t>风景点76</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>帝国中央堡</t>
-  </si>
-  <si>
-    <t>风景点77</t>
-  </si>
-  <si>
-    <t>水晶塔</t>
-  </si>
-  <si>
-    <t>风景点78</t>
-  </si>
-  <si>
-    <t>早霜顶</t>
-  </si>
-  <si>
-    <t>风景点79</t>
-  </si>
-  <si>
-    <t>密约之塔</t>
-  </si>
-  <si>
-    <t>风景点80</t>
   </si>
 </sst>
 </file>
@@ -1202,6 +1202,9 @@
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="3" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1209,9 +1212,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf fontId="5" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="300" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" xfId="0">
@@ -1654,45 +1654,45 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B2" s="11">
         <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="E2" s="14">
         <v>0.1666666668</v>
@@ -1701,13 +1701,13 @@
         <v>0.3750000003</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1716,10 +1716,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="E3" s="18">
         <v>0.416666667</v>
@@ -1728,13 +1728,13 @@
         <v>0.7500000006</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1743,10 +1743,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="E4" s="18">
         <v>0.7500000006</v>
@@ -1755,13 +1755,13 @@
         <v>0.2083333335</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="27" customFormat="true">
@@ -1770,10 +1770,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="E5" s="23">
         <v>0.3333333336</v>
@@ -1782,17 +1782,17 @@
         <v>0.833333334</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J5" s="26" t="s"/>
       <c r="K5" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="27" customFormat="true">
@@ -1801,10 +1801,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="E6" s="23">
         <v>0.6666666672</v>
@@ -1813,17 +1813,17 @@
         <v>0.7500000006</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J6" s="26" t="s"/>
       <c r="K6" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L6" s="27" t="s"/>
     </row>
@@ -1833,10 +1833,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="E7" s="23">
         <v>0.3333333336</v>
@@ -1845,17 +1845,17 @@
         <v>0.833333334</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J7" s="27" t="s"/>
       <c r="K7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="27" customFormat="true">
@@ -1864,10 +1864,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="E8" s="23">
         <v>0.1666666668</v>
@@ -1876,13 +1876,13 @@
         <v>0.3333333336</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J8" s="27" t="s"/>
     </row>
@@ -1892,10 +1892,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="E9" s="23">
         <v>0.6666666672</v>
@@ -1904,13 +1904,13 @@
         <v>0.7500000006</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J9" s="27" t="s"/>
     </row>
@@ -1920,10 +1920,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="E10" s="14">
         <v>0.4583333337</v>
@@ -1932,13 +1932,13 @@
         <v>0.6250000005</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="27" customFormat="true">
@@ -1947,10 +1947,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="E11" s="23">
         <v>0</v>
@@ -1959,13 +1959,13 @@
         <v>0.1666666668</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J11" s="26" t="s"/>
     </row>
@@ -1975,10 +1975,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="E12" s="14">
         <v>0.5000000004</v>
@@ -1987,13 +1987,13 @@
         <v>0.6666666672</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="27" customFormat="true">
@@ -2002,10 +2002,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="E13" s="23">
         <v>0.5000000004</v>
@@ -2014,13 +2014,13 @@
         <v>0.5833333338</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J13" s="27" t="s"/>
     </row>
@@ -2030,10 +2030,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="E14" s="14">
         <v>0.3333333336</v>
@@ -2042,13 +2042,13 @@
         <v>0.5000000004</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2057,10 +2057,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="E15" s="14">
         <v>0.7500000006</v>
@@ -2069,13 +2069,13 @@
         <v>0.9166666674</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2084,10 +2084,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="E16" s="14">
         <v>0.2083333335</v>
@@ -2096,13 +2096,13 @@
         <v>0.3750000003</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2111,10 +2111,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="E17" s="14">
         <v>0.2083333335</v>
@@ -2123,16 +2123,16 @@
         <v>0.3750000003</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2141,10 +2141,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="E18" s="14">
         <v>0.4583333337</v>
@@ -2153,13 +2153,13 @@
         <v>0.6250000005</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="27" customFormat="true">
@@ -2168,10 +2168,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="E19" s="23">
         <v>0.4583333337</v>
@@ -2180,13 +2180,13 @@
         <v>0.6250000005</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2195,10 +2195,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="E20" s="14">
         <v>0.1666666668</v>
@@ -2207,13 +2207,13 @@
         <v>0.3333333336</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="36" customFormat="true">
@@ -2222,10 +2222,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="E21" s="32">
         <v>0.2083333335</v>
@@ -2234,17 +2234,17 @@
         <v>0.3750000003</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>25</v>
       </c>
       <c r="I21" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J21" s="36" t="s"/>
       <c r="K21" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="27" customFormat="true">
@@ -2253,10 +2253,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="E22" s="23">
         <v>0.6666666672</v>
@@ -2265,17 +2265,17 @@
         <v>0.833333334</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J22" s="27" t="s"/>
       <c r="K22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="27" customFormat="true">
@@ -2284,10 +2284,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="E23" s="32">
         <v>0.416666667</v>
@@ -2296,17 +2296,17 @@
         <v>0.5833333338</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J23" s="27" t="s"/>
       <c r="K23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2315,10 +2315,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="E24" s="14">
         <v>0.3333333336</v>
@@ -2327,13 +2327,13 @@
         <v>0.5000000004</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2342,10 +2342,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="E25" s="39">
         <v>0.7500000006</v>
@@ -2354,27 +2354,27 @@
         <v>0.2083333335</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="27" customFormat="true">
       <c r="A26" s="42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B26" s="20">
         <v>1</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="E26" s="23">
         <v>0.5000000004</v>
@@ -2383,17 +2383,17 @@
         <v>0.7500000006</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J26" s="27" t="s"/>
       <c r="K26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2402,10 +2402,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="E27" s="14">
         <v>0.7500000006</v>
@@ -2414,16 +2414,16 @@
         <v>0.2083333335</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2432,10 +2432,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="E28" s="18">
         <v>0.416666667</v>
@@ -2444,13 +2444,13 @@
         <v>0.6666666672</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2459,10 +2459,10 @@
         <v>4</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="E29" s="14">
         <v>0.3333333336</v>
@@ -2471,13 +2471,13 @@
         <v>0.5416666671</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2486,10 +2486,10 @@
         <v>5</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="E30" s="18">
         <v>0.7500000006</v>
@@ -2498,13 +2498,13 @@
         <v>0.2083333335</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2513,10 +2513,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="E31" s="14">
         <v>0.3333333336</v>
@@ -2525,16 +2525,16 @@
         <v>0.6666666672</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2543,10 +2543,10 @@
         <v>7</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="E32" s="14">
         <v>0.2083333335</v>
@@ -2555,13 +2555,13 @@
         <v>0.3750000003</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="36" customFormat="true">
@@ -2570,10 +2570,10 @@
         <v>8</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="E33" s="23">
         <v>0.416666667</v>
@@ -2582,17 +2582,17 @@
         <v>0.5833333338</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J33" s="36" t="s"/>
       <c r="K33" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2601,10 +2601,10 @@
         <v>9</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="E34" s="14">
         <v>0.7500000006</v>
@@ -2613,13 +2613,13 @@
         <v>0.9166666674</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2628,10 +2628,10 @@
         <v>10</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="E35" s="14">
         <v>0.5000000004</v>
@@ -2640,13 +2640,13 @@
         <v>0.6666666672</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2655,10 +2655,10 @@
         <v>11</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="E36" s="14">
         <v>0.5000000004</v>
@@ -2667,13 +2667,13 @@
         <v>0.6666666672</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="27" customFormat="true">
@@ -2682,10 +2682,10 @@
         <v>12</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="E37" s="23">
         <v>0.6666666672</v>
@@ -2694,16 +2694,16 @@
         <v>0.7500000006</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="I37" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J37" s="26" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="27" customFormat="true">
@@ -2712,10 +2712,10 @@
         <v>13</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="E38" s="23">
         <v>0.3333333336</v>
@@ -2724,17 +2724,17 @@
         <v>0.5000000004</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I38" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J38" s="27" t="s"/>
       <c r="K38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2743,10 +2743,10 @@
         <v>14</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="E39" s="14">
         <v>0.3333333336</v>
@@ -2755,13 +2755,13 @@
         <v>0.5000000004</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="36" customFormat="true">
@@ -2770,10 +2770,10 @@
         <v>15</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="E40" s="23">
         <v>0.5000000004</v>
@@ -2782,19 +2782,19 @@
         <v>0.6666666672</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I40" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J40" s="43" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K40" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2803,10 +2803,10 @@
         <v>16</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="E41" s="18">
         <v>0.416666667</v>
@@ -2815,13 +2815,13 @@
         <v>0.5833333338</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2830,10 +2830,10 @@
         <v>17</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E42" s="14">
         <v>0.416666667</v>
@@ -2842,13 +2842,13 @@
         <v>0.5833333338</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2857,10 +2857,10 @@
         <v>18</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E43" s="14">
         <v>0</v>
@@ -2869,13 +2869,13 @@
         <v>0.1666666668</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2884,10 +2884,10 @@
         <v>19</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E44" s="14">
         <v>0.3333333336</v>
@@ -2896,33 +2896,33 @@
         <v>0.5000000004</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J44" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K44" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B45" s="11">
         <v>1</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="E45" s="14">
         <v>0.3333333336</v>
@@ -2931,16 +2931,16 @@
         <v>0.6666666672</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2949,10 +2949,10 @@
         <v>2</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="E46" s="14">
         <v>0.7500000006</v>
@@ -2961,13 +2961,13 @@
         <v>0.2083333335</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2976,10 +2976,10 @@
         <v>3</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="E47" s="14">
         <v>0.2083333335</v>
@@ -2988,13 +2988,13 @@
         <v>0.3750000003</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3003,10 +3003,10 @@
         <v>4</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="E48" s="14">
         <v>0.416666667</v>
@@ -3015,13 +3015,13 @@
         <v>0.6666666672</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3030,10 +3030,10 @@
         <v>5</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="E49" s="14">
         <v>0.3333333336</v>
@@ -3042,13 +3042,13 @@
         <v>0.6666666672</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3057,10 +3057,10 @@
         <v>6</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="E50" s="14">
         <v>0.7500000006</v>
@@ -3069,13 +3069,13 @@
         <v>0.2083333335</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="36" customFormat="true">
@@ -3084,10 +3084,10 @@
         <v>7</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="E51" s="23">
         <v>0.2083333335</v>
@@ -3096,17 +3096,17 @@
         <v>0.3750000003</v>
       </c>
       <c r="G51" s="22" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I51" s="25" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J51" s="27" t="s"/>
       <c r="K51" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3115,10 +3115,10 @@
         <v>8</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="E52" s="14">
         <v>0.2083333335</v>
@@ -3127,13 +3127,13 @@
         <v>0.3750000003</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3142,10 +3142,10 @@
         <v>9</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="E53" s="14">
         <v>0.5000000004</v>
@@ -3154,13 +3154,13 @@
         <v>0.6666666672</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3169,10 +3169,10 @@
         <v>10</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="E54" s="14">
         <v>0.2083333335</v>
@@ -3181,13 +3181,13 @@
         <v>0.3750000003</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3196,10 +3196,10 @@
         <v>11</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="E55" s="14">
         <v>0.5000000004</v>
@@ -3208,13 +3208,13 @@
         <v>0.6666666672</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3223,10 +3223,10 @@
         <v>12</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="E56" s="14">
         <v>0.2916666669</v>
@@ -3235,13 +3235,13 @@
         <v>0.6666666672</v>
       </c>
       <c r="G56" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3250,10 +3250,10 @@
         <v>13</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="E57" s="14">
         <v>0.7500000006</v>
@@ -3262,13 +3262,13 @@
         <v>0.2083333335</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3277,10 +3277,10 @@
         <v>14</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="E58" s="14">
         <v>0.6666666672</v>
@@ -3289,13 +3289,13 @@
         <v>0.7500000006</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3304,10 +3304,10 @@
         <v>15</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="E59" s="39">
         <v>0.7500000006</v>
@@ -3316,13 +3316,13 @@
         <v>0.2083333335</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3331,10 +3331,10 @@
         <v>16</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="E60" s="14">
         <v>0.3333333336</v>
@@ -3343,13 +3343,13 @@
         <v>0.6666666672</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H60" s="16" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3358,10 +3358,10 @@
         <v>17</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="E61" s="46">
         <v>0.5000000004</v>
@@ -3370,13 +3370,13 @@
         <v>0.6250000005</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3385,10 +3385,10 @@
         <v>18</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="E62" s="14">
         <v>0.6666666672</v>
@@ -3397,13 +3397,13 @@
         <v>0.7500000006</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3412,10 +3412,10 @@
         <v>19</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="E63" s="14">
         <v>0.416666667</v>
@@ -3424,13 +3424,13 @@
         <v>0.6666666672</v>
       </c>
       <c r="G63" s="16" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3439,10 +3439,10 @@
         <v>20</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="E64" s="14">
         <v>0.7500000006</v>
@@ -3451,13 +3451,13 @@
         <v>0.2083333335</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3466,10 +3466,10 @@
         <v>21</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D65" s="16" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="E65" s="14">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0.1666666668</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3493,10 +3493,10 @@
         <v>22</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="E66" s="14">
         <v>0.2083333335</v>
@@ -3505,13 +3505,13 @@
         <v>0.3333333336</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -3520,10 +3520,10 @@
         <v>23</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="E67" s="14">
         <v>0.5000000004</v>
@@ -3532,16 +3532,16 @@
         <v>0.6666666672</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K67" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="36" customFormat="true">
@@ -3550,10 +3550,10 @@
         <v>24</v>
       </c>
       <c r="C68" s="50" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D68" s="51" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="E68" s="52">
         <v>0.7500000006</v>
@@ -3562,31 +3562,31 @@
         <v>0.9166666674</v>
       </c>
       <c r="G68" s="51" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="H68" s="51" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="I68" s="25" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J68" s="27" t="s"/>
       <c r="K68" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="36" customFormat="true">
       <c r="A69" s="54" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B69" s="20">
         <v>1</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="E69" s="23">
         <v>0.6666666672</v>
@@ -3595,13 +3595,13 @@
         <v>0.7500000006</v>
       </c>
       <c r="G69" s="22" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I69" s="25" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3610,10 +3610,10 @@
         <v>2</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="E70" s="14">
         <v>0.7500000006</v>
@@ -3622,13 +3622,13 @@
         <v>0.2083333335</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3637,10 +3637,10 @@
         <v>3</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="E71" s="14">
         <v>0.3333333336</v>
@@ -3649,13 +3649,13 @@
         <v>0.5000000004</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="36" customFormat="true">
@@ -3664,10 +3664,10 @@
         <v>4</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="E72" s="23">
         <v>0.2083333335</v>
@@ -3676,17 +3676,17 @@
         <v>0.3750000003</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H72" s="22" t="s">
         <v>25</v>
       </c>
       <c r="I72" s="25" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J72" s="27" t="s"/>
       <c r="K72" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="36" customFormat="true">
@@ -3695,10 +3695,10 @@
         <v>5</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="E73" s="23">
         <v>0.6666666672</v>
@@ -3707,17 +3707,17 @@
         <v>0.7500000006</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I73" s="25" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J73" s="27" t="s"/>
       <c r="K73" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3726,10 +3726,10 @@
         <v>6</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="E74" s="14">
         <v>0.7500000006</v>
@@ -3738,16 +3738,16 @@
         <v>0.2083333335</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K74" s="55" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="36" customFormat="true">
@@ -3756,10 +3756,10 @@
         <v>7</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="E75" s="23">
         <v>0.3333333336</v>
@@ -3768,17 +3768,17 @@
         <v>0.5000000004</v>
       </c>
       <c r="G75" s="22" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H75" s="28" t="s">
         <v>25</v>
       </c>
       <c r="I75" s="25" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J75" s="27" t="s"/>
       <c r="K75" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="61" customFormat="true">
@@ -3787,10 +3787,10 @@
         <v>8</v>
       </c>
       <c r="C76" s="57" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D76" s="58" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="E76" s="59">
         <v>0.5000000004</v>
@@ -3799,17 +3799,17 @@
         <v>0.6666666672</v>
       </c>
       <c r="G76" s="58" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H76" s="58" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I76" s="57" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J76" s="27" t="s"/>
       <c r="K76" s="61" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="36" customFormat="true">
@@ -3818,10 +3818,10 @@
         <v>9</v>
       </c>
       <c r="C77" s="54" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D77" s="51" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="E77" s="52">
         <v>0.2083333335</v>
@@ -3830,28 +3830,28 @@
         <v>0.3750000003</v>
       </c>
       <c r="G77" s="51" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H77" s="62" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="I77" s="25" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J77" s="27" t="s"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B78" s="11">
         <v>1</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="E78" s="14">
         <v>0.5000000004</v>
@@ -3860,13 +3860,13 @@
         <v>0.7500000006</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3875,10 +3875,10 @@
         <v>2</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="E79" s="14">
         <v>0.7500000006</v>
@@ -3887,13 +3887,13 @@
         <v>0.2083333335</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3902,10 +3902,10 @@
         <v>3</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="E80" s="14">
         <v>0.3333333336</v>
@@ -3914,17 +3914,17 @@
         <v>0.5000000004</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J80" s="27" t="s"/>
       <c r="K80" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="36" customFormat="true">
@@ -3933,10 +3933,10 @@
         <v>4</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="E81" s="23">
         <v>0.6666666672</v>
@@ -3945,17 +3945,17 @@
         <v>0.7500000006</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="I81" s="25" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J81" s="26" t="s"/>
       <c r="K81" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="4:8">
@@ -4721,15 +4721,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>334</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -4769,7 +4769,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -4801,7 +4801,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -4833,7 +4833,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -4841,7 +4841,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -4849,7 +4849,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -4857,7 +4857,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="B19">
         <v>27</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -4881,7 +4881,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="B21">
         <v>4</v>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4926,454 +4926,454 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="13" defaultRowHeight="18" customHeight="true"/>
   <cols>
-    <col min="1" max="1" width="13.6719" style="4"/>
-    <col min="2" max="2" width="36.9609" style="4" customWidth="true"/>
-    <col min="3" max="27" width="13.6719" style="4"/>
+    <col min="1" max="1" width="13.6719" style="5"/>
+    <col min="2" max="2" width="36.9609" style="5" customWidth="true"/>
+    <col min="3" max="27" width="13.6719" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="A1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="5">
+        <v>330</v>
+      </c>
+      <c r="F2" s="5">
+        <v>222</v>
+      </c>
+      <c r="G2" s="5" t="s"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="5">
+        <v>212</v>
+      </c>
+      <c r="F3" s="5">
+        <v>185</v>
+      </c>
+      <c r="G3" s="5" t="s"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="5">
+        <v>356</v>
+      </c>
+      <c r="F4" s="5">
+        <v>302</v>
+      </c>
+      <c r="G4" s="5" t="s"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="5">
+        <v>362</v>
+      </c>
+      <c r="F5" s="5">
+        <v>304</v>
+      </c>
+      <c r="G5" s="5" t="s"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="5">
+        <v>574</v>
+      </c>
+      <c r="F6" s="5">
+        <v>435</v>
+      </c>
+      <c r="G6" s="5" t="s"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="5">
+        <v>550</v>
+      </c>
+      <c r="F7" s="5">
+        <v>427</v>
+      </c>
+      <c r="G7" s="5" t="s"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="5">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="5">
+        <v>916</v>
+      </c>
+      <c r="F8" s="5">
+        <v>607</v>
+      </c>
+      <c r="G8" s="5" t="s"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="5">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="5">
+        <v>902</v>
+      </c>
+      <c r="F9" s="5">
+        <v>603</v>
+      </c>
+      <c r="G9" s="5" t="s"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="5">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1224</v>
+      </c>
+      <c r="F10" s="5">
+        <v>722</v>
+      </c>
+      <c r="G10" s="5" t="s"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="5">
+        <v>20</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1272</v>
+      </c>
+      <c r="F11" s="5">
+        <v>738</v>
+      </c>
+      <c r="G11" s="5" t="s"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="5">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1678</v>
+      </c>
+      <c r="F12" s="5">
+        <v>916</v>
+      </c>
+      <c r="G12" s="5" t="s"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="5">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1670</v>
+      </c>
+      <c r="F13" s="5">
+        <v>913</v>
+      </c>
+      <c r="G13" s="5" t="s"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="5">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="4">
-        <v>330</v>
-      </c>
-      <c r="F2" s="4">
-        <v>222</v>
-      </c>
-      <c r="G2" s="4" t="s"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="D14" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2024</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1035</v>
+      </c>
+      <c r="G14" s="5" t="s"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="5">
+        <v>30</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1962</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1016</v>
+      </c>
+      <c r="G15" s="5" t="s"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="5">
         <v>35</v>
       </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="4">
-        <v>212</v>
-      </c>
-      <c r="F3" s="4">
-        <v>185</v>
-      </c>
-      <c r="G3" s="4" t="s"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="4">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="4">
-        <v>356</v>
-      </c>
-      <c r="F4" s="4">
-        <v>302</v>
-      </c>
-      <c r="G4" s="4" t="s"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="4">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="D16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3332</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1429</v>
+      </c>
+      <c r="G16" s="5" t="s"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="5">
+        <v>35</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="5">
+        <v>3206</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1389</v>
+      </c>
+      <c r="G17" s="5" t="s"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="5">
         <v>40</v>
       </c>
-      <c r="E5" s="4">
-        <v>362</v>
-      </c>
-      <c r="F5" s="4">
-        <v>304</v>
-      </c>
-      <c r="G5" s="4" t="s"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="4">
-        <v>574</v>
-      </c>
-      <c r="F6" s="4">
-        <v>435</v>
-      </c>
-      <c r="G6" s="4" t="s"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="4">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="4">
-        <v>550</v>
-      </c>
-      <c r="F7" s="4">
-        <v>427</v>
-      </c>
-      <c r="G7" s="4" t="s"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="D18" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="5">
+        <v>3776</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1611</v>
+      </c>
+      <c r="G18" s="5" t="s"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="5">
+        <v>40</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3778</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1612</v>
+      </c>
+      <c r="G19" s="5" t="s"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="5">
         <v>45</v>
       </c>
-      <c r="C8" s="4">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="4">
-        <v>916</v>
-      </c>
-      <c r="F8" s="4">
-        <v>607</v>
-      </c>
-      <c r="G8" s="4" t="s"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="4">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="4">
-        <v>902</v>
-      </c>
-      <c r="F9" s="4">
-        <v>603</v>
-      </c>
-      <c r="G9" s="4" t="s"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="4">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1224</v>
-      </c>
-      <c r="F10" s="4">
-        <v>722</v>
-      </c>
-      <c r="G10" s="4" t="s"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="4">
-        <v>20</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1272</v>
-      </c>
-      <c r="F11" s="4">
-        <v>738</v>
-      </c>
-      <c r="G11" s="4" t="s"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="4">
-        <v>25</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1678</v>
-      </c>
-      <c r="F12" s="4">
-        <v>916</v>
-      </c>
-      <c r="G12" s="4" t="s"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="4">
-        <v>25</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1670</v>
-      </c>
-      <c r="F13" s="4">
-        <v>913</v>
-      </c>
-      <c r="G13" s="4" t="s"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="4">
-        <v>30</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2024</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1035</v>
-      </c>
-      <c r="G14" s="4" t="s"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="4">
-        <v>30</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1962</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1016</v>
-      </c>
-      <c r="G15" s="4" t="s"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="4">
-        <v>35</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="4">
-        <v>3332</v>
-      </c>
-      <c r="F16" s="4">
-        <v>1429</v>
-      </c>
-      <c r="G16" s="4" t="s"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="4">
-        <v>35</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="4">
-        <v>3206</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1389</v>
-      </c>
-      <c r="G17" s="4" t="s"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="4">
-        <v>40</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="4">
-        <v>3776</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1611</v>
-      </c>
-      <c r="G18" s="4" t="s"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="4">
-        <v>40</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="4">
-        <v>3778</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1612</v>
-      </c>
-      <c r="G19" s="4" t="s"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="D20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="5">
+        <v>4768</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="5">
         <v>45</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="4">
-        <v>4768</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="4">
-        <v>45</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="D21" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="5">
         <v>4542</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <v>1758</v>
       </c>
     </row>
     <row r="22" spans="3:3">
-      <c r="C22" s="4" t="s"/>
+      <c r="C22" s="5" t="s"/>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="4" t="s"/>
+      <c r="C23" s="5" t="s"/>
     </row>
   </sheetData>
 </worksheet>
@@ -5392,13 +5392,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>159</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5711,505 +5711,505 @@
   <sheetFormatPr baseColWidth="13" defaultRowHeight="18" customHeight="true"/>
   <cols>
     <col min="2" max="2" width="33.9922" customWidth="true"/>
-    <col min="5" max="5" width="13.6719" style="7"/>
+    <col min="5" max="5" width="13.6719" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
       <c r="B1" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>76</v>
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="7">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4">
         <v>0.0416666667</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="7">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4">
         <v>0.0833333334</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7">
+        <v>19</v>
+      </c>
+      <c r="E5" s="4">
         <v>0.1250000001</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="7">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4">
         <v>0.1666666668</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <v>0.2083333335</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="7">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4">
         <v>0.2500000002</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="7">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4">
         <v>0.2916666669</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="7">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4">
         <v>0.3333333336</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="7">
+        <v>37</v>
+      </c>
+      <c r="E11" s="4">
         <v>0.3750000003</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="7">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4">
         <v>0.416666667</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="7">
+        <v>43</v>
+      </c>
+      <c r="E13" s="4">
         <v>0.4583333337</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="7">
+        <v>46</v>
+      </c>
+      <c r="E14" s="4">
         <v>0.5000000004</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="7">
+        <v>49</v>
+      </c>
+      <c r="E15" s="4">
         <v>0.5416666671</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="7">
+        <v>52</v>
+      </c>
+      <c r="E16" s="4">
         <v>0.5833333338</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="7">
+        <v>55</v>
+      </c>
+      <c r="E17" s="4">
         <v>0.6250000005</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="7">
+        <v>58</v>
+      </c>
+      <c r="E18" s="4">
         <v>0.6666666672</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="7">
+        <v>61</v>
+      </c>
+      <c r="E19" s="4">
         <v>0.7083333339</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="7">
+        <v>64</v>
+      </c>
+      <c r="E20" s="4">
         <v>0.7500000006</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="7">
+        <v>67</v>
+      </c>
+      <c r="E21" s="4">
         <v>0.7916666673</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="7">
+        <v>70</v>
+      </c>
+      <c r="E22" s="4">
         <v>0.833333334</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E23" s="7">
+        <v>73</v>
+      </c>
+      <c r="E23" s="4">
         <v>0.8750000007</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="7">
+        <v>76</v>
+      </c>
+      <c r="E24" s="4">
         <v>0.9166666674</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
-      </c>
-      <c r="E25" s="7">
+        <v>79</v>
+      </c>
+      <c r="E25" s="4">
         <v>0.9583333341</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" s="7" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="E26" s="4" t="s"/>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="4:4">
       <c r="D36" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="4:4">
       <c r="D37" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="4:4">
       <c r="D41" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
